--- a/output/ENTERPRISE_27945311000180.xlsx
+++ b/output/ENTERPRISE_27945311000180.xlsx
@@ -768,10 +768,10 @@
         <v>44165</v>
       </c>
       <c r="B35">
-        <v>0.1442459</v>
+        <v>0.14401</v>
       </c>
       <c r="C35">
-        <v>0.002156362701940528</v>
+        <v>0.001949756162243688</v>
       </c>
     </row>
   </sheetData>

--- a/output/ENTERPRISE_27945311000180.xlsx
+++ b/output/ENTERPRISE_27945311000180.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>ENTERPRISE FUNDO DE INVESTIMENTO EM COTAS DE FUNDOS DE INVESTIMENTO MULTIMERCADO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,392 +383,290 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>43159</v>
       </c>
       <c r="B2">
-        <v>-0.004066600000000031</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>43190</v>
       </c>
       <c r="B3">
-        <v>-0.0006846999999999825</v>
-      </c>
-      <c r="C3">
         <v>0.003395708990179491</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>43220</v>
       </c>
       <c r="B4">
-        <v>0.01123760000000007</v>
-      </c>
-      <c r="C4">
         <v>0.0119304687919819</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>43251</v>
       </c>
       <c r="B5">
-        <v>0.003273499999999929</v>
-      </c>
-      <c r="C5">
         <v>-0.007875597189028749</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>43281</v>
       </c>
       <c r="B6">
-        <v>0.02798579999999995</v>
-      </c>
-      <c r="C6">
         <v>0.02463166823403595</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>43312</v>
       </c>
       <c r="B7">
-        <v>0.02390990000000004</v>
-      </c>
-      <c r="C7">
         <v>-0.003964938037081756</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>43343</v>
       </c>
       <c r="B8">
-        <v>0.04561459999999995</v>
-      </c>
-      <c r="C8">
         <v>0.02119786125712819</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>43373</v>
       </c>
       <c r="B9">
-        <v>0.05608999999999997</v>
-      </c>
-      <c r="C9">
         <v>0.01001841405045423</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>43404</v>
       </c>
       <c r="B10">
-        <v>0.04989949999999999</v>
-      </c>
-      <c r="C10">
         <v>-0.005861716330994526</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>43434</v>
       </c>
       <c r="B11">
-        <v>0.02261139999999995</v>
-      </c>
-      <c r="C11">
         <v>-0.02599115439144417</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>43465</v>
       </c>
       <c r="B12">
-        <v>-0.009662799999999971</v>
-      </c>
-      <c r="C12">
         <v>-0.03156057129814893</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>43496</v>
       </c>
       <c r="B13">
-        <v>0.0006995999999999114</v>
-      </c>
-      <c r="C13">
         <v>0.01046350677324837</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>43524</v>
       </c>
       <c r="B14">
-        <v>0.003106300000000006</v>
-      </c>
-      <c r="C14">
         <v>0.002405017449792268</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>43555</v>
       </c>
       <c r="B15">
-        <v>0.01021859999999997</v>
-      </c>
-      <c r="C15">
         <v>0.007090275477284802</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>43585</v>
       </c>
       <c r="B16">
-        <v>0.009920499999999999</v>
-      </c>
-      <c r="C16">
         <v>-0.0002950846480157532</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>43616</v>
       </c>
       <c r="B17">
-        <v>0.02586859999999991</v>
-      </c>
-      <c r="C17">
         <v>0.0157914410094655</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>43646</v>
       </c>
       <c r="B18">
-        <v>0.04106670000000001</v>
-      </c>
-      <c r="C18">
         <v>0.01481486030472134</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>43677</v>
       </c>
       <c r="B19">
-        <v>0.04800500000000008</v>
-      </c>
-      <c r="C19">
         <v>0.006664606600134348</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>43708</v>
       </c>
       <c r="B20">
-        <v>0.06365529999999997</v>
-      </c>
-      <c r="C20">
         <v>0.01493342111917384</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>43738</v>
       </c>
       <c r="B21">
-        <v>0.05908080000000004</v>
-      </c>
-      <c r="C21">
         <v>-0.004300735398018452</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>43769</v>
       </c>
       <c r="B22">
-        <v>0.06721149999999998</v>
-      </c>
-      <c r="C22">
         <v>0.007677129072682698</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>43799</v>
       </c>
       <c r="B23">
-        <v>0.05956460000000008</v>
-      </c>
-      <c r="C23">
         <v>-0.007165308844591656</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>43830</v>
       </c>
       <c r="B24">
-        <v>0.06639240000000002</v>
-      </c>
-      <c r="C24">
         <v>0.006443967644823134</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>43861</v>
       </c>
       <c r="B25">
-        <v>0.06793059999999995</v>
-      </c>
-      <c r="C25">
         <v>0.001442433385684172</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>43890</v>
       </c>
       <c r="B26">
-        <v>0.0805165000000001</v>
-      </c>
-      <c r="C26">
         <v>0.01178531638666414</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>43921</v>
       </c>
       <c r="B27">
-        <v>0.08256160000000001</v>
-      </c>
-      <c r="C27">
         <v>0.00189270594201929</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>43951</v>
       </c>
       <c r="B28">
-        <v>0.09600009999999992</v>
-      </c>
-      <c r="C28">
         <v>0.01241361230621885</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>43982</v>
       </c>
       <c r="B29">
-        <v>0.08493210000000007</v>
-      </c>
-      <c r="C29">
         <v>-0.0100985392245857</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>44012</v>
       </c>
       <c r="B30">
-        <v>0.09815810000000003</v>
-      </c>
-      <c r="C30">
         <v>0.01219062464830745</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>44043</v>
       </c>
       <c r="B31">
-        <v>0.1087720999999999</v>
-      </c>
-      <c r="C31">
         <v>0.009665274972701976</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>44074</v>
       </c>
       <c r="B32">
-        <v>0.1258642000000001</v>
-      </c>
-      <c r="C32">
         <v>0.01541534098846831</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>44104</v>
       </c>
       <c r="B33">
-        <v>0.1241759</v>
-      </c>
-      <c r="C33">
         <v>-0.00149955918307032</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>44135</v>
       </c>
       <c r="B34">
-        <v>0.1417838</v>
-      </c>
-      <c r="C34">
         <v>0.01566294029252902</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>44165</v>
       </c>
       <c r="B35">
-        <v>0.14401</v>
-      </c>
-      <c r="C35">
-        <v>0.001949756162243688</v>
+        <v>-0.005641610959973287</v>
       </c>
     </row>
   </sheetData>
